--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\ITAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1950561C-0D56-45B2-A038-A1E2B666E1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27456D-D61A-469B-BA1B-6CD93843C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
   <si>
     <t>type</t>
   </si>
@@ -418,20 +418,6 @@
     <t>repeat_count</t>
   </si>
   <si>
-    <t>${d_IDType} = "Scanner" and ${d_eu_name} = 'SARAYA'</t>
-  </si>
-  <si>
-    <t>${d_eu_name} = 'SARAYA'</t>
-  </si>
-  <si>
-    <t>${d_IDType} = "Manuel" or ${d_eu_name} != 'SARAYA'</t>
-  </si>
-  <si>
-    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}),
-    if(${d_eu_name} = 'SARAYA', ${d_manual_code_id},  concat(${d_recorderID}, '_', ${d_cluster_id}, '_', ${d_manual_code_id}))
-)</t>
-  </si>
-  <si>
     <t>select_one yes_no</t>
   </si>
   <si>
@@ -507,19 +493,28 @@
     <t>Insuffisance du volume de sang dû à la pipette</t>
   </si>
   <si>
-    <t>Le format du QR Code est incorrect. Exemple SENITAS1234</t>
-  </si>
-  <si>
-    <t>if(${d_eu_name} = 'SARAYA', regex(., '^(SENITAS)\d{4}$'), true())</t>
-  </si>
-  <si>
-    <t>sn_lf_f_2405_v4</t>
-  </si>
-  <si>
-    <t>(2024 Mai) 2. ITAS - Formulaire Résultat FTS V4</t>
-  </si>
-  <si>
-    <t>sn_lf_itas_20305_2_fts_v4</t>
+    <t>sn_lf_pretas_20407_2_fts</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 2. Pre-TAS - Formulaire Résultat FTS V4</t>
+  </si>
+  <si>
+    <t>sn_lf_f_2407</t>
+  </si>
+  <si>
+    <t>${d_IDType} = "Scanner"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${d_IDType} = "Manuel" </t>
+  </si>
+  <si>
+    <t>if(${d_IDType} = 'Scanner', concat(${d_BarcodeID}), concat(${d_recorderID}, '_', ${d_cluster_id}, '_', ${d_manual_code_id}))</t>
+  </si>
+  <si>
+    <t>Si positif, le participant est-il traité?</t>
+  </si>
+  <si>
+    <t>d_participant_treated</t>
   </si>
 </sst>
 </file>
@@ -1113,11 +1108,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1357,7 +1352,7 @@
         <v>96</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="37" t="s">
         <v>116</v>
@@ -1429,9 +1424,7 @@
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
-      <c r="H12" s="13" t="s">
-        <v>127</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="12" t="s">
         <v>19</v>
@@ -1455,7 +1448,7 @@
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
@@ -1465,7 +1458,7 @@
       <c r="L13" s="13"/>
       <c r="M13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="10" customFormat="1" ht="51">
+    <row r="14" spans="1:15" s="10" customFormat="1">
       <c r="A14" s="12" t="s">
         <v>20</v>
       </c>
@@ -1477,14 +1470,10 @@
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>128</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="12" t="s">
@@ -1513,7 +1502,7 @@
         <v>94</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
@@ -1523,7 +1512,7 @@
       <c r="L15" s="13"/>
       <c r="M15" s="12"/>
     </row>
-    <row r="16" spans="1:15" s="10" customFormat="1" ht="94.5">
+    <row r="16" spans="1:15" s="10" customFormat="1" ht="63">
       <c r="A16" s="25" t="s">
         <v>20</v>
       </c>
@@ -1543,7 +1532,7 @@
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -1557,13 +1546,13 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1586,7 +1575,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
@@ -1613,7 +1602,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>40</v>
@@ -1663,7 +1652,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
@@ -1682,13 +1671,13 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
@@ -1736,7 +1725,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
@@ -1759,7 +1748,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
@@ -1788,7 +1777,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>40</v>
@@ -1815,7 +1804,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="11"/>
@@ -1840,7 +1829,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
@@ -1859,13 +1848,13 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1">
       <c r="A29" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="12"/>
@@ -1924,20 +1913,28 @@
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="12"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="18"/>
+    <row r="32" spans="1:13" s="22" customFormat="1">
+      <c r="A32" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
       <c r="H32" s="13"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
@@ -1947,7 +1944,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
@@ -2139,7 +2136,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>69</v>
@@ -2150,7 +2147,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>70</v>
@@ -2161,7 +2158,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>71</v>
@@ -2172,7 +2169,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>72</v>
@@ -2183,10 +2180,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2194,10 +2191,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2224,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2248,10 +2245,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>78</v>

--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A27456D-D61A-469B-BA1B-6CD93843C948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F489680C-4D84-47AA-8909-663BE5F342D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="160">
   <si>
     <t>type</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>d_participant_treated</t>
+  </si>
+  <si>
+    <t>${d_final_result} = 'Positif'</t>
   </si>
 </sst>
 </file>
@@ -1109,10 +1112,10 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C40" sqref="C40"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1927,7 +1930,9 @@
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="13" t="s">
+        <v>159</v>
+      </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20" t="s">
         <v>19</v>

--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F489680C-4D84-47AA-8909-663BE5F342D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DDA54-17C3-4071-BBC5-09EDA5A34C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -361,12 +361,6 @@
   </si>
   <si>
     <t>3. Sélectionner la commune</t>
-  </si>
-  <si>
-    <t>4. Entrer le nom de l'école</t>
-  </si>
-  <si>
-    <t>5. Entrer le code de l'école</t>
   </si>
   <si>
     <t>6. Combien d'enfant allez vous enregistrer?</t>
@@ -493,15 +487,6 @@
     <t>Insuffisance du volume de sang dû à la pipette</t>
   </si>
   <si>
-    <t>sn_lf_pretas_20407_2_fts</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 2. Pre-TAS - Formulaire Résultat FTS V4</t>
-  </si>
-  <si>
-    <t>sn_lf_f_2407</t>
-  </si>
-  <si>
     <t>${d_IDType} = "Scanner"</t>
   </si>
   <si>
@@ -518,6 +503,21 @@
   </si>
   <si>
     <t>${d_final_result} = 'Positif'</t>
+  </si>
+  <si>
+    <t>4. Nom du village</t>
+  </si>
+  <si>
+    <t>5. Code du village</t>
+  </si>
+  <si>
+    <t>sn_lf_f_2407_2</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 2. Pre-TAS - Formulaire Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>sn_lf_pretas_20407_2_fts_v2</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="63">
@@ -1268,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
@@ -1293,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>27</v>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>19</v>
@@ -1355,10 +1355,10 @@
         <v>96</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="32"/>
@@ -1421,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
@@ -1444,14 +1444,14 @@
         <v>34</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
@@ -1469,14 +1469,14 @@
         <v>92</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="12" t="s">
@@ -1494,18 +1494,18 @@
         <v>93</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="13"/>
       <c r="F15" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G15" s="25" t="s">
         <v>94</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
@@ -1523,7 +1523,7 @@
         <v>103</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1578,7 +1578,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
@@ -1605,7 +1605,7 @@
         <v>39</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>40</v>
@@ -1630,7 +1630,7 @@
         <v>85</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="12"/>
@@ -1655,7 +1655,7 @@
         <v>86</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
@@ -1674,13 +1674,13 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>135</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
@@ -1728,7 +1728,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
@@ -1751,7 +1751,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
@@ -1780,7 +1780,7 @@
         <v>48</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>40</v>
@@ -1807,7 +1807,7 @@
         <v>88</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="11"/>
@@ -1832,7 +1832,7 @@
         <v>89</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
@@ -1851,13 +1851,13 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1">
       <c r="A29" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="12"/>
@@ -1888,7 +1888,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="12"/>
       <c r="I30" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -1918,20 +1918,20 @@
     </row>
     <row r="32" spans="1:13" s="22" customFormat="1">
       <c r="A32" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
       <c r="H32" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20" t="s">
@@ -1949,7 +1949,7 @@
         <v>52</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
@@ -2141,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>69</v>
@@ -2152,7 +2152,7 @@
         <v>91</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>70</v>
@@ -2163,7 +2163,7 @@
         <v>91</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>71</v>
@@ -2174,7 +2174,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>72</v>
@@ -2185,10 +2185,10 @@
         <v>91</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2196,10 +2196,10 @@
         <v>91</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>78</v>

--- a/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
+++ b/LF/PreTAS/Senegal/2024/sn_lf_pretas_20407_2_fts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\PreTAS\Senegal\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816DDA54-17C3-4071-BBC5-09EDA5A34C11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BAA3692-F617-4A09-A1B5-FAA12A2433A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>d_cluster_id</t>
-  </si>
-  <si>
-    <t>Le code a trois chiffre associé à chaque école</t>
   </si>
   <si>
     <t>. &gt; 99 and .&lt; 1000</t>
@@ -511,13 +508,16 @@
     <t>5. Code du village</t>
   </si>
   <si>
-    <t>sn_lf_f_2407_2</t>
-  </si>
-  <si>
-    <t>(2024 Juillet) 2. Pre-TAS - Formulaire Résultat FTS V2</t>
-  </si>
-  <si>
-    <t>sn_lf_pretas_20407_2_fts_v2</t>
+    <t>sn_lf_pretas_20407_2_fts_v3</t>
+  </si>
+  <si>
+    <t>(2024 Juillet) 2. Pre-TAS - Formulaire Résultat FTS V3</t>
+  </si>
+  <si>
+    <t>sn_lf_f_2407_3</t>
+  </si>
+  <si>
+    <t>Le code a trois chiffre associé à chaque village</t>
   </si>
 </sst>
 </file>
@@ -1111,11 +1111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1180,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="63">
@@ -1191,7 +1191,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>16</v>
@@ -1220,7 +1220,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D3" s="15"/>
       <c r="E3" s="12"/>
@@ -1243,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="12"/>
@@ -1268,7 +1268,7 @@
         <v>24</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="12"/>
@@ -1293,17 +1293,17 @@
         <v>26</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
@@ -1313,7 +1313,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:15" customFormat="1">
@@ -1321,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>19</v>
@@ -1332,10 +1332,10 @@
     </row>
     <row r="8" spans="1:15" s="3" customFormat="1">
       <c r="A8" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
@@ -1344,7 +1344,7 @@
       <c r="G8" s="29"/>
       <c r="H8" s="10"/>
       <c r="I8" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
@@ -1352,13 +1352,13 @@
     </row>
     <row r="9" spans="1:15" s="3" customFormat="1">
       <c r="A9" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="32"/>
@@ -1370,15 +1370,15 @@
       <c r="K9" s="32"/>
       <c r="L9" s="32"/>
       <c r="O9" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="3" customFormat="1">
       <c r="A10" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
@@ -1387,7 +1387,7 @@
       <c r="G10" s="30"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="11" spans="1:15" s="3" customFormat="1" ht="31.5">
       <c r="A11" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="30"/>
@@ -1407,7 +1407,7 @@
       <c r="G11" s="30"/>
       <c r="H11" s="29"/>
       <c r="I11" s="36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
@@ -1415,13 +1415,13 @@
     </row>
     <row r="12" spans="1:15" s="10" customFormat="1" ht="31.5">
       <c r="A12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="12"/>
@@ -1438,20 +1438,20 @@
     </row>
     <row r="13" spans="1:15" s="10" customFormat="1">
       <c r="A13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="12"/>
       <c r="F13" s="13"/>
       <c r="G13" s="15"/>
       <c r="H13" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="12" t="s">
@@ -1466,17 +1466,17 @@
         <v>20</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="13"/>
       <c r="F14" s="16"/>
       <c r="G14" s="15"/>
       <c r="H14" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="12" t="s">
@@ -1491,21 +1491,21 @@
         <v>20</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="13"/>
       <c r="F15" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="12" t="s">
@@ -1520,22 +1520,22 @@
         <v>20</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="24"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J16" s="23" t="s">
         <v>19</v>
@@ -1549,13 +1549,13 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1">
       <c r="A17" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>125</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>126</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="12"/>
@@ -1575,18 +1575,18 @@
         <v>20</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="12"/>
       <c r="F18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -1599,16 +1599,16 @@
     </row>
     <row r="19" spans="1:13" s="10" customFormat="1">
       <c r="A19" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>40</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1624,20 +1624,20 @@
     </row>
     <row r="20" spans="1:13" s="10" customFormat="1">
       <c r="A20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="C20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="17"/>
       <c r="H20" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I20" s="13"/>
       <c r="J20" s="12" t="s">
@@ -1649,20 +1649,20 @@
     </row>
     <row r="21" spans="1:13" s="10" customFormat="1">
       <c r="A21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="17"/>
       <c r="H21" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="13"/>
       <c r="J21" s="12" t="s">
@@ -1674,20 +1674,20 @@
     </row>
     <row r="22" spans="1:13" s="10" customFormat="1">
       <c r="A22" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="D22" s="17"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="17"/>
       <c r="H22" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I22" s="13"/>
       <c r="J22" s="12" t="s">
@@ -1699,10 +1699,10 @@
     </row>
     <row r="23" spans="1:13" s="10" customFormat="1">
       <c r="A23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="17"/>
@@ -1711,7 +1711,7 @@
       <c r="G23" s="17"/>
       <c r="H23" s="13"/>
       <c r="I23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>19</v>
@@ -1722,20 +1722,20 @@
     </row>
     <row r="24" spans="1:13" s="10" customFormat="1" ht="63">
       <c r="A24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="11" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="17"/>
       <c r="H24" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
@@ -1748,21 +1748,21 @@
         <v>20</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="H25" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I25" s="12"/>
       <c r="J25" s="12" t="s">
@@ -1774,22 +1774,22 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
       <c r="G26" s="18"/>
       <c r="H26" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="12" t="s">
@@ -1801,20 +1801,20 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
       <c r="G27" s="18"/>
       <c r="H27" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="12" t="s">
@@ -1826,20 +1826,20 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="18"/>
       <c r="H28" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="12" t="s">
@@ -1851,20 +1851,20 @@
     </row>
     <row r="29" spans="1:13" s="10" customFormat="1">
       <c r="A29" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D29" s="17"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="17"/>
       <c r="H29" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I29" s="13"/>
       <c r="J29" s="12" t="s">
@@ -1876,10 +1876,10 @@
     </row>
     <row r="30" spans="1:13" ht="162.75" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1888,7 +1888,7 @@
       <c r="G30" s="18"/>
       <c r="H30" s="12"/>
       <c r="I30" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J30" s="11"/>
       <c r="K30" s="11"/>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="31" spans="1:13" s="22" customFormat="1">
       <c r="A31" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>51</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="20"/>
@@ -1918,20 +1918,20 @@
     </row>
     <row r="32" spans="1:13" s="22" customFormat="1">
       <c r="A32" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
       <c r="G32" s="21"/>
       <c r="H32" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I32" s="20"/>
       <c r="J32" s="20" t="s">
@@ -1943,13 +1943,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="11"/>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="34" spans="1:13" s="3" customFormat="1">
       <c r="A34" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="34"/>
@@ -1980,10 +1980,10 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -1999,10 +1999,10 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -2041,7 +2041,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -2050,167 +2050,167 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>67</v>
-      </c>
       <c r="C6" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>145</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>147</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2226,8 +2226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2239,24 +2239,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
